--- a/Report/2020年开门红竞赛统计表.xlsx
+++ b/Report/2020年开门红竞赛统计表.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
   <si>
     <t>开门红昆明机构车险统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-01-01 至 2020-01-22</t>
+    <t>数据统计范围：2020-01-01 至 2020-01-31</t>
   </si>
   <si>
     <t>机构</t>
@@ -200,12 +200,12 @@
     <t>签单笔数</t>
   </si>
   <si>
+    <t>朱菊美</t>
+  </si>
+  <si>
     <t>李守洪</t>
   </si>
   <si>
-    <t>朱菊美</t>
-  </si>
-  <si>
     <t>赵福庆</t>
   </si>
   <si>
@@ -218,21 +218,21 @@
     <t>李小文</t>
   </si>
   <si>
+    <t>陶霞</t>
+  </si>
+  <si>
     <t>李锦发</t>
   </si>
   <si>
+    <t>杜庆玲</t>
+  </si>
+  <si>
     <t>陈俊</t>
   </si>
   <si>
-    <t>杜庆玲</t>
-  </si>
-  <si>
     <t>张艳美</t>
   </si>
   <si>
-    <t>陶霞</t>
-  </si>
-  <si>
     <t>依腊波</t>
   </si>
   <si>
@@ -254,10 +254,10 @@
     <t>刘志明</t>
   </si>
   <si>
+    <t>张晓铁</t>
+  </si>
+  <si>
     <t>李剑</t>
-  </si>
-  <si>
-    <t>施建忠</t>
   </si>
   <si>
     <t>注：月度前10名获奖</t>
@@ -276,6 +276,9 @@
   <si>
     <t>驾意险
 联动率</t>
+  </si>
+  <si>
+    <t>施建忠</t>
   </si>
   <si>
     <t>李丽</t>
@@ -289,7 +292,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
@@ -684,7 +687,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -760,16 +763,16 @@
         <v>320</v>
       </c>
       <c r="F4" s="5">
-        <v>133.136119</v>
+        <v>135.5705020000001</v>
       </c>
       <c r="G4" s="5">
-        <v>133.136119</v>
+        <v>135.5705020000001</v>
       </c>
       <c r="H4" s="6">
-        <v>1.720935629119319</v>
+        <v>1.243640693750001</v>
       </c>
       <c r="I4" s="6">
-        <v>0.4160503718750001</v>
+        <v>0.4236578187500003</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -789,16 +792,16 @@
         <v>265</v>
       </c>
       <c r="F5" s="5">
-        <v>84.172736</v>
+        <v>84.52097299999998</v>
       </c>
       <c r="G5" s="5">
-        <v>84.172736</v>
+        <v>84.52097299999998</v>
       </c>
       <c r="H5" s="6">
-        <v>1.313845450428816</v>
+        <v>0.9362639735849055</v>
       </c>
       <c r="I5" s="6">
-        <v>0.3176329660377358</v>
+        <v>0.3189470679245283</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -824,7 +827,7 @@
         <v>50.49735700000002</v>
       </c>
       <c r="H6" s="6">
-        <v>1.044377156136364</v>
+        <v>0.7411708850000003</v>
       </c>
       <c r="I6" s="6">
         <v>0.2524867850000001</v>
@@ -847,16 +850,16 @@
         <v>235</v>
       </c>
       <c r="F7" s="5">
-        <v>101.504054</v>
+        <v>103.53375</v>
       </c>
       <c r="G7" s="5">
-        <v>101.504054</v>
+        <v>103.53375</v>
       </c>
       <c r="H7" s="6">
-        <v>1.786628416634429</v>
+        <v>1.293283630748112</v>
       </c>
       <c r="I7" s="6">
-        <v>0.4319321446808511</v>
+        <v>0.4405691489361702</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -876,16 +879,16 @@
         <v>235</v>
       </c>
       <c r="F8" s="5">
-        <v>65.81186099999999</v>
+        <v>67.94120999999998</v>
       </c>
       <c r="G8" s="5">
-        <v>65.81186099999999</v>
+        <v>67.94120999999998</v>
       </c>
       <c r="H8" s="6">
-        <v>1.158390590135396</v>
+        <v>0.8486822388469455</v>
       </c>
       <c r="I8" s="6">
-        <v>0.2800504723404255</v>
+        <v>0.2891115319148935</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -905,16 +908,16 @@
         <v>105</v>
       </c>
       <c r="F9" s="5">
-        <v>29.237938</v>
+        <v>31.57074299999999</v>
       </c>
       <c r="G9" s="5">
-        <v>29.237938</v>
+        <v>31.57074299999999</v>
       </c>
       <c r="H9" s="6">
-        <v>1.151797557575758</v>
+        <v>0.8826229225806449</v>
       </c>
       <c r="I9" s="6">
-        <v>0.2784565523809524</v>
+        <v>0.3006737428571428</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -940,7 +943,7 @@
         <v>57.884472</v>
       </c>
       <c r="H10" s="6">
-        <v>5.985780627272726</v>
+        <v>4.247973348387096</v>
       </c>
       <c r="I10" s="6">
         <v>1.4471118</v>
@@ -963,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="5">
-        <v>68.34176500000001</v>
+        <v>71.24529100000001</v>
       </c>
       <c r="G11" s="5">
-        <v>68.34176500000001</v>
+        <v>71.24529100000001</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>19</v>
@@ -992,16 +995,16 @@
         <v>1400</v>
       </c>
       <c r="F12" s="5">
-        <v>590.5863020000007</v>
+        <v>602.7642980000011</v>
       </c>
       <c r="G12" s="5">
-        <v>590.5863020000007</v>
+        <v>602.7642980000011</v>
       </c>
       <c r="H12" s="6">
-        <v>1.744914074090911</v>
+        <v>1.263860624838712</v>
       </c>
       <c r="I12" s="6">
-        <v>0.4218473585714291</v>
+        <v>0.4305459271428579</v>
       </c>
     </row>
   </sheetData>
@@ -1071,10 +1074,10 @@
         <v>120</v>
       </c>
       <c r="D4" s="5">
-        <v>46.45455399999999</v>
+        <v>46.54006400000001</v>
       </c>
       <c r="E4" s="6">
-        <v>0.3871212833333333</v>
+        <v>0.3878338666666667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1086,10 +1089,10 @@
         <v>531</v>
       </c>
       <c r="D5" s="5">
-        <v>74.34553700000012</v>
+        <v>74.75102300000023</v>
       </c>
       <c r="E5" s="6">
-        <v>0.2498087514124297</v>
+        <v>0.2449977476459514</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1101,10 +1104,10 @@
         <v>150</v>
       </c>
       <c r="D6" s="5">
-        <v>25.82457199999999</v>
+        <v>26.03737499999999</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1721638133333332</v>
+        <v>0.1735824999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1140,10 +1143,10 @@
         <v>48</v>
       </c>
       <c r="D9" s="5">
-        <v>22.22796199999999</v>
+        <v>22.25626399999999</v>
       </c>
       <c r="E9" s="6">
-        <v>0.4630825416666665</v>
+        <v>0.4636721666666665</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1155,10 +1158,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="5">
-        <v>19.72425099999998</v>
+        <v>19.96436399999998</v>
       </c>
       <c r="E10" s="6">
-        <v>0.3652639074074071</v>
+        <v>0.3697104444444441</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1170,10 +1173,10 @@
         <v>72</v>
       </c>
       <c r="D11" s="5">
-        <v>13.252777</v>
+        <v>14.58277699999999</v>
       </c>
       <c r="E11" s="6">
-        <v>0.1840663472222222</v>
+        <v>0.2025385694444443</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1185,10 +1188,10 @@
         <v>60</v>
       </c>
       <c r="D12" s="5">
-        <v>7.750497999999988</v>
+        <v>7.855441999999987</v>
       </c>
       <c r="E12" s="6">
-        <v>0.1291749666666665</v>
+        <v>0.1309240333333331</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1200,10 +1203,10 @@
         <v>1170</v>
       </c>
       <c r="D13" s="5">
-        <v>271.4353469999999</v>
+        <v>270.8823759999994</v>
       </c>
       <c r="E13" s="6">
-        <v>0.231996023076923</v>
+        <v>0.2315233982905978</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1281,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="5">
-        <v>11.246613</v>
+        <v>11.510763</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>41</v>
@@ -1377,7 +1380,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>29.654903</v>
+        <v>29.919053</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1624,19 +1627,19 @@
         <v>32</v>
       </c>
       <c r="C4" s="5">
-        <v>5.348109999999991</v>
+        <v>5.45305399999999</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
       <c r="E4" s="6">
-        <v>2.765215965909086</v>
+        <v>2.000919008064512</v>
       </c>
       <c r="F4" s="4">
         <v>9</v>
       </c>
       <c r="G4" s="6">
-        <v>2.457969747474744</v>
+        <v>1.778594673835122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1653,13 +1656,13 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="6">
-        <v>2.706402872727273</v>
+        <v>1.920673006451613</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="6">
-        <v>2.255335727272728</v>
+        <v>1.600560838709678</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1670,19 +1673,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="5">
-        <v>4.527459999999995</v>
+        <v>4.569157999999995</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
       </c>
       <c r="E6" s="6">
-        <v>2.080802323232321</v>
+        <v>1.490298845878135</v>
       </c>
       <c r="F6" s="4">
         <v>11</v>
       </c>
       <c r="G6" s="6">
-        <v>1.702474628099172</v>
+        <v>1.219335419354837</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1693,19 +1696,19 @@
         <v>27</v>
       </c>
       <c r="C7" s="5">
-        <v>9.725981999999981</v>
+        <v>9.938784999999978</v>
       </c>
       <c r="D7" s="4">
         <v>23</v>
       </c>
       <c r="E7" s="6">
-        <v>1.749139055335965</v>
+        <v>1.268484481065916</v>
       </c>
       <c r="F7" s="4">
         <v>25</v>
       </c>
       <c r="G7" s="6">
-        <v>1.609207930909088</v>
+        <v>1.167005722580643</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1716,19 +1719,19 @@
         <v>31</v>
       </c>
       <c r="C8" s="5">
-        <v>4.423905999999996</v>
+        <v>4.648585999999994</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
       </c>
       <c r="E8" s="6">
-        <v>1.829888390909089</v>
+        <v>1.364584922580643</v>
       </c>
       <c r="F8" s="4">
         <v>12</v>
       </c>
       <c r="G8" s="6">
-        <v>1.524906992424241</v>
+        <v>1.137154102150536</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1739,19 +1742,19 @@
         <v>30</v>
       </c>
       <c r="C9" s="5">
-        <v>6.120041999999994</v>
+        <v>6.285626999999993</v>
       </c>
       <c r="D9" s="4">
         <v>16</v>
       </c>
       <c r="E9" s="6">
-        <v>1.582169948863635</v>
+        <v>1.153209792338708</v>
       </c>
       <c r="F9" s="4">
         <v>19</v>
       </c>
       <c r="G9" s="6">
-        <v>1.332353641148324</v>
+        <v>0.9711240356536491</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1762,19 +1765,19 @@
         <v>26</v>
       </c>
       <c r="C10" s="5">
-        <v>1.167776</v>
+        <v>1.253286</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="6">
-        <v>1.610115393939394</v>
+        <v>1.226333612903226</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="6">
-        <v>1.207586545454546</v>
+        <v>0.9197502096774196</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1791,13 +1794,13 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="6">
-        <v>0.4406688787878789</v>
+        <v>0.3127327526881721</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="6">
-        <v>0.3305016590909092</v>
+        <v>0.2345495645161291</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1806,19 +1809,19 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
-        <v>33.10881700000008</v>
+        <v>33.94403700000014</v>
       </c>
       <c r="D12" s="4">
         <v>73</v>
       </c>
       <c r="E12" s="6">
-        <v>1.876028858655048</v>
+        <v>1.364961275740173</v>
       </c>
       <c r="F12" s="4">
         <v>85</v>
       </c>
       <c r="G12" s="6">
-        <v>1.611177725668453</v>
+        <v>1.172260860341561</v>
       </c>
     </row>
   </sheetData>
@@ -1885,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="5">
-        <v>11304.98</v>
+        <v>12126.9</v>
       </c>
       <c r="E4" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1902,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="5">
-        <v>11194.06</v>
+        <v>11304.98</v>
       </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1959,10 +1962,10 @@
         <v>59</v>
       </c>
       <c r="D8" s="5">
-        <v>7355.96</v>
+        <v>7744.64</v>
       </c>
       <c r="E8" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1987,16 +1990,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="5">
-        <v>7035.120000000001</v>
+        <v>7109.270000000001</v>
       </c>
       <c r="E10" s="4">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2004,16 +2007,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="5">
-        <v>6702.110000000001</v>
+        <v>7035.120000000001</v>
       </c>
       <c r="E11" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2027,10 +2030,10 @@
         <v>63</v>
       </c>
       <c r="D12" s="5">
-        <v>6563.28</v>
+        <v>6951.96</v>
       </c>
       <c r="E12" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2038,16 +2041,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="5">
-        <v>5971.660000000001</v>
+        <v>6702.110000000001</v>
       </c>
       <c r="E13" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2055,16 +2058,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="5">
-        <v>5887.570000000001</v>
+        <v>5971.660000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2078,10 +2081,10 @@
         <v>66</v>
       </c>
       <c r="D15" s="5">
-        <v>5752.480000000001</v>
+        <v>5946.820000000002</v>
       </c>
       <c r="E15" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2095,10 +2098,10 @@
         <v>67</v>
       </c>
       <c r="D16" s="5">
-        <v>5752.480000000001</v>
+        <v>5946.820000000002</v>
       </c>
       <c r="E16" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2146,10 +2149,10 @@
         <v>70</v>
       </c>
       <c r="D19" s="5">
-        <v>5011.709999999999</v>
+        <v>5206.049999999999</v>
       </c>
       <c r="E19" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2191,16 +2194,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="5">
-        <v>4588.41</v>
+        <v>4642.48</v>
       </c>
       <c r="E22" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2214,10 +2217,10 @@
         <v>74</v>
       </c>
       <c r="D23" s="5">
-        <v>4586.440000000001</v>
+        <v>4588.41</v>
       </c>
       <c r="E23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2300,7 +2303,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4">
         <v>35</v>
@@ -2320,16 +2323,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4">
         <v>22</v>
       </c>
       <c r="E5" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2340,7 +2343,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4">
         <v>22</v>
@@ -2357,19 +2360,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6">
-        <v>0.4854368932038835</v>
+        <v>0.509090909090909</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2377,19 +2380,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6">
-        <v>0.4791666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2397,19 +2400,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F9" s="6">
-        <v>0.4745762711864407</v>
+        <v>0.4695652173913044</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2420,16 +2423,16 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4">
         <v>27</v>
       </c>
       <c r="E10" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6">
-        <v>0.4655172413793103</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2440,7 +2443,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4">
         <v>23</v>
@@ -2500,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4">
         <v>29</v>
@@ -2526,10 +2529,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="6">
-        <v>0.4036697247706422</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2543,13 +2546,13 @@
         <v>63</v>
       </c>
       <c r="D16" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="6">
-        <v>0.3461538461538461</v>
+        <v>0.3580246913580247</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2560,16 +2563,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4">
         <v>53</v>
       </c>
       <c r="E17" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F17" s="6">
-        <v>0.3441558441558442</v>
+        <v>0.3419354838709677</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2583,13 +2586,13 @@
         <v>70</v>
       </c>
       <c r="D18" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="6">
-        <v>0.3150684931506849</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2603,13 +2606,13 @@
         <v>59</v>
       </c>
       <c r="D19" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="6">
-        <v>0.2844827586206897</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2626,10 +2629,10 @@
         <v>22</v>
       </c>
       <c r="E20" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F20" s="6">
-        <v>0.22</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2643,13 +2646,13 @@
         <v>67</v>
       </c>
       <c r="D21" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F21" s="6">
-        <v>0.178343949044586</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2666,10 +2669,10 @@
         <v>39</v>
       </c>
       <c r="E22" s="4">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="F22" s="6">
-        <v>0.06456953642384106</v>
+        <v>0.06074766355140187</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2680,10 +2683,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
